--- a/data_year/zb/社会服务/自治组织.xlsx
+++ b/data_year/zb/社会服务/自治组织.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,585 +478,308 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>731659</v>
+        <v>594658</v>
       </c>
       <c r="C2" t="n">
-        <v>3150000</v>
+        <v>2334000</v>
       </c>
       <c r="D2" t="n">
-        <v>108424</v>
+        <v>87057</v>
       </c>
       <c r="E2" t="n">
-        <v>484000</v>
+        <v>439000</v>
       </c>
       <c r="F2" t="n">
-        <v>840083</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
+        <v>681715</v>
+      </c>
+      <c r="G2" t="n">
+        <v>309.88987</v>
+      </c>
       <c r="H2" t="n">
-        <v>779543</v>
+        <v>716000</v>
       </c>
       <c r="I2" t="n">
-        <v>3634000</v>
+        <v>2773000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>699974</v>
+        <v>589653</v>
       </c>
       <c r="C3" t="n">
-        <v>3164000</v>
+        <v>2319000</v>
       </c>
       <c r="D3" t="n">
-        <v>91893</v>
+        <v>89480</v>
       </c>
       <c r="E3" t="n">
-        <v>464000</v>
+        <v>454000</v>
       </c>
       <c r="F3" t="n">
-        <v>791867</v>
-      </c>
-      <c r="G3" t="inlineStr"/>
+        <v>679133</v>
+      </c>
+      <c r="G3" t="n">
+        <v>363.2</v>
+      </c>
       <c r="H3" t="n">
-        <v>762920</v>
+        <v>734000</v>
       </c>
       <c r="I3" t="n">
-        <v>3628000</v>
+        <v>2773000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>681277</v>
+        <v>588475</v>
       </c>
       <c r="C4" t="n">
-        <v>2942000</v>
+        <v>2323000</v>
       </c>
       <c r="D4" t="n">
-        <v>86087</v>
+        <v>91153</v>
       </c>
       <c r="E4" t="n">
-        <v>396000</v>
+        <v>469000</v>
       </c>
       <c r="F4" t="n">
-        <v>767364</v>
-      </c>
-      <c r="G4" t="inlineStr"/>
+        <v>679628</v>
+      </c>
+      <c r="G4" t="n">
+        <v>375</v>
+      </c>
       <c r="H4" t="n">
-        <v>715761</v>
+        <v>742000</v>
       </c>
       <c r="I4" t="n">
-        <v>3338000</v>
+        <v>2792000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>663486</v>
+        <v>588547</v>
       </c>
       <c r="C5" t="n">
-        <v>3191000</v>
+        <v>2323000</v>
       </c>
       <c r="D5" t="n">
-        <v>77431</v>
+        <v>94620</v>
       </c>
       <c r="E5" t="n">
-        <v>397000</v>
+        <v>484000</v>
       </c>
       <c r="F5" t="n">
-        <v>740917</v>
+        <v>683167</v>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>764546</v>
+        <v>760848</v>
       </c>
       <c r="I5" t="n">
-        <v>3588000</v>
+        <v>2807128</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>644166</v>
+        <v>585451</v>
       </c>
       <c r="C6" t="n">
-        <v>2921000</v>
+        <v>2305000</v>
       </c>
       <c r="D6" t="n">
-        <v>77884</v>
+        <v>96693</v>
       </c>
       <c r="E6" t="n">
-        <v>425000</v>
+        <v>497000</v>
       </c>
       <c r="F6" t="n">
-        <v>722050</v>
+        <v>682144</v>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>679641</v>
+        <v>767000</v>
       </c>
       <c r="I6" t="n">
-        <v>3346000</v>
+        <v>2802062</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>629079</v>
+        <v>580856</v>
       </c>
       <c r="C7" t="n">
-        <v>2657000</v>
+        <v>2297061</v>
       </c>
       <c r="D7" t="n">
-        <v>79947</v>
+        <v>99679</v>
       </c>
       <c r="E7" t="n">
-        <v>454000</v>
+        <v>512196</v>
       </c>
       <c r="F7" t="n">
-        <v>709026</v>
+        <v>680535</v>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>684906</v>
+        <v>777687</v>
       </c>
       <c r="I7" t="n">
-        <v>3111000</v>
+        <v>2809257</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>623669</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2430000</v>
-      </c>
+        <v>559186</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>80717</v>
-      </c>
-      <c r="E8" t="n">
-        <v>443000</v>
-      </c>
+        <v>103292</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>704386</v>
-      </c>
-      <c r="G8" t="n">
-        <v>273.17004</v>
-      </c>
-      <c r="H8" t="n">
-        <v>776161</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2873000</v>
-      </c>
+        <v>662478</v>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>612709</v>
-      </c>
-      <c r="C9" t="n">
-        <v>2411000</v>
-      </c>
+        <v>554218</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
-        <v>82006</v>
-      </c>
-      <c r="E9" t="n">
-        <v>416000</v>
-      </c>
+        <v>106491</v>
+      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>694715</v>
-      </c>
-      <c r="G9" t="n">
-        <v>280.93419</v>
-      </c>
-      <c r="H9" t="n">
-        <v>715223</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2827238</v>
-      </c>
+        <v>660709</v>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>604285</v>
-      </c>
-      <c r="C10" t="n">
-        <v>2339000</v>
-      </c>
+        <v>542019</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
-        <v>83413</v>
-      </c>
-      <c r="E10" t="n">
-        <v>422000</v>
-      </c>
+        <v>107869</v>
+      </c>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>687698</v>
-      </c>
-      <c r="G10" t="n">
-        <v>328.55706</v>
-      </c>
-      <c r="H10" t="n">
-        <v>717688</v>
-      </c>
-      <c r="I10" t="n">
-        <v>2760325</v>
-      </c>
+        <v>649888</v>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>599078</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2340000</v>
-      </c>
+        <v>533073</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>84689</v>
-      </c>
-      <c r="E11" t="n">
-        <v>431000</v>
-      </c>
+        <v>109620</v>
+      </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>683767</v>
-      </c>
-      <c r="G11" t="n">
-        <v>370.90266</v>
-      </c>
-      <c r="H11" t="n">
-        <v>718566</v>
-      </c>
-      <c r="I11" t="n">
-        <v>2771000</v>
-      </c>
+        <v>642693</v>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>594658</v>
-      </c>
-      <c r="C12" t="n">
-        <v>2334000</v>
-      </c>
+        <v>502057</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
-        <v>87057</v>
-      </c>
-      <c r="E12" t="n">
-        <v>439000</v>
-      </c>
+        <v>113089</v>
+      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>681715</v>
-      </c>
-      <c r="G12" t="n">
-        <v>309.88987</v>
-      </c>
-      <c r="H12" t="n">
-        <v>716000</v>
-      </c>
-      <c r="I12" t="n">
-        <v>2773000</v>
-      </c>
+        <v>615146</v>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>589653</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2319000</v>
-      </c>
+        <v>489573</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
-        <v>89480</v>
-      </c>
-      <c r="E13" t="n">
-        <v>454000</v>
-      </c>
+        <v>116551</v>
+      </c>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>679133</v>
-      </c>
-      <c r="G13" t="n">
-        <v>363.2</v>
-      </c>
-      <c r="H13" t="n">
-        <v>734000</v>
-      </c>
-      <c r="I13" t="n">
-        <v>2773000</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>588475</v>
-      </c>
-      <c r="C14" t="n">
-        <v>2323000</v>
-      </c>
-      <c r="D14" t="n">
-        <v>91153</v>
-      </c>
-      <c r="E14" t="n">
-        <v>469000</v>
-      </c>
-      <c r="F14" t="n">
-        <v>679628</v>
-      </c>
-      <c r="G14" t="n">
-        <v>375</v>
-      </c>
-      <c r="H14" t="n">
-        <v>742000</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2792000</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>588547</v>
-      </c>
-      <c r="C15" t="n">
-        <v>2323000</v>
-      </c>
-      <c r="D15" t="n">
-        <v>94620</v>
-      </c>
-      <c r="E15" t="n">
-        <v>484000</v>
-      </c>
-      <c r="F15" t="n">
-        <v>683167</v>
-      </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="n">
-        <v>760848</v>
-      </c>
-      <c r="I15" t="n">
-        <v>2807128</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>585451</v>
-      </c>
-      <c r="C16" t="n">
-        <v>2305000</v>
-      </c>
-      <c r="D16" t="n">
-        <v>96693</v>
-      </c>
-      <c r="E16" t="n">
-        <v>497000</v>
-      </c>
-      <c r="F16" t="n">
-        <v>682144</v>
-      </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="n">
-        <v>767000</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2802062</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>580856</v>
-      </c>
-      <c r="C17" t="n">
-        <v>2297061</v>
-      </c>
-      <c r="D17" t="n">
-        <v>99679</v>
-      </c>
-      <c r="E17" t="n">
-        <v>512196</v>
-      </c>
-      <c r="F17" t="n">
-        <v>680535</v>
-      </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="n">
-        <v>777687</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2809257</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>559186</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="n">
-        <v>103292</v>
-      </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="n">
-        <v>662478</v>
-      </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>554218</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="n">
-        <v>106491</v>
-      </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="n">
-        <v>660709</v>
-      </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>542019</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="n">
-        <v>107869</v>
-      </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="n">
-        <v>649888</v>
-      </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>533073</v>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="n">
-        <v>109620</v>
-      </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="n">
-        <v>642693</v>
-      </c>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>502057</v>
-      </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="n">
-        <v>113089</v>
-      </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="n">
-        <v>615146</v>
-      </c>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
+        <v>606124</v>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
